--- a/Group_7_Sourcing.xlsx
+++ b/Group_7_Sourcing.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba8bb3ba8fa52c85/Dokumente/TUT/Embedded Systems and Electronics Productization/Project/MySynth_ELT-23056/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Dokumente\TUT\Embedded Systems and Electronics Productization\Project\MySynth_ELT-23056\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0566E7B1-2FC9-4DC1-A91B-0D8D0AFAEDA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{0566E7B1-2FC9-4DC1-A91B-0D8D0AFAEDA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D43B6800-3990-4CFF-A48B-9E7BC24179D9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{3CDA2AFA-A8ED-4424-9ACD-6CCB292532B3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{3CDA2AFA-A8ED-4424-9ACD-6CCB292532B3}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB Sourcing" sheetId="1" r:id="rId1"/>
+    <sheet name="Components" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
   <si>
     <t>PCB Sourcing</t>
   </si>
@@ -93,6 +94,90 @@
   </si>
   <si>
     <t>PCB Specification:</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>Integerated Circuits</t>
+  </si>
+  <si>
+    <t>BCM2837B</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>XR77004(MC33989)</t>
+  </si>
+  <si>
+    <t>RT9741CGV</t>
+  </si>
+  <si>
+    <t>STX-35017-4N</t>
+  </si>
+  <si>
+    <t>A70-112-331-N126</t>
+  </si>
+  <si>
+    <t>NC7WZ16</t>
+  </si>
+  <si>
+    <t>BAV99</t>
+  </si>
+  <si>
+    <t>Pin headers</t>
+  </si>
+  <si>
+    <t>1-1734248-5</t>
+  </si>
+  <si>
+    <t>hdmi 47151-1051</t>
+  </si>
+  <si>
+    <t>40W 0.1" PIN HDR</t>
+  </si>
+  <si>
+    <t>Transistors</t>
+  </si>
+  <si>
+    <t>DMG1012T</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>RED and Green 1611</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>Single Price</t>
+  </si>
+  <si>
+    <t>Total Prototype</t>
+  </si>
+  <si>
+    <t>Total Production</t>
+  </si>
+  <si>
+    <t>Vendors:</t>
   </si>
 </sst>
 </file>
@@ -102,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +211,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -252,6 +364,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -568,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50170C4-F98A-4639-BEA5-16AF1D0C0AE8}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -718,4 +842,471 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224ECABD-5FA5-4061-9557-29EA7CE2DAB4}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
+        <v>41.45</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="14">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14">
+        <f>C22*$B$22</f>
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" ref="D23:E23" si="0">D22*$B$22</f>
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="14">
+        <v>300</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14">
+        <f>C24*$B$24</f>
+        <v>15</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" ref="D25" si="1">D24*$B$24</f>
+        <v>90</v>
+      </c>
+      <c r="E25" s="14">
+        <f>E24*$B$24</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="14">
+        <v>150</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14">
+        <f>C26*$B$26</f>
+        <v>7.5</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" ref="D27:E27" si="2">D26*$B$26</f>
+        <v>30</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="17">
+        <f>SUM(C4:C21)+C23+C25+C27</f>
+        <v>78.110000000000014</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" ref="D28:E28" si="3">SUM(D4:D21)+D23+D25+D27</f>
+        <v>136.44999999999999</v>
+      </c>
+      <c r="E28" s="18">
+        <f t="shared" si="3"/>
+        <v>63.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="14">
+        <f>C28*5</f>
+        <v>390.55000000000007</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" ref="D30:E30" si="4">D28*5</f>
+        <v>682.25</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" si="4"/>
+        <v>318.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="22">
+        <f>C28*1000</f>
+        <v>78110.000000000015</v>
+      </c>
+      <c r="D31" s="22">
+        <f t="shared" ref="D31:E31" si="5">D28*1000</f>
+        <v>136450</v>
+      </c>
+      <c r="E31" s="23">
+        <f t="shared" si="5"/>
+        <v>63610</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>